--- a/CumulativeTestsByTypeByCounty/2021-01-23.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-01-23.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>43848</v>
+        <v>43859</v>
       </c>
       <c r="C2" s="4">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D2" s="4">
-        <v>4177</v>
+        <v>4221</v>
       </c>
       <c r="E2" s="4">
-        <v>49372</v>
+        <v>49428</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3639</v>
+        <v>3647</v>
       </c>
       <c r="C3" s="4">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="E3" s="4">
-        <v>5425</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>42823</v>
+        <v>42887</v>
       </c>
       <c r="C4" s="4">
-        <v>1301</v>
+        <v>1311</v>
       </c>
       <c r="D4" s="4">
-        <v>11589</v>
+        <v>11649</v>
       </c>
       <c r="E4" s="4">
-        <v>55713</v>
+        <v>55847</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>5361</v>
+        <v>5408</v>
       </c>
       <c r="C5" s="4">
         <v>1845</v>
       </c>
       <c r="D5" s="4">
-        <v>3484</v>
+        <v>3499</v>
       </c>
       <c r="E5" s="4">
-        <v>10690</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2534</v>
+        <v>2554</v>
       </c>
       <c r="C6" s="4">
         <v>94</v>
@@ -1148,7 +1148,7 @@
         <v>309</v>
       </c>
       <c r="E6" s="4">
-        <v>2937</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C7" s="4">
         <v>106</v>
@@ -1165,7 +1165,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="4">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>31257</v>
+        <v>31494</v>
       </c>
       <c r="C8" s="4">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D8" s="4">
-        <v>2657</v>
+        <v>2705</v>
       </c>
       <c r="E8" s="4">
-        <v>34803</v>
+        <v>35087</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>13473</v>
+        <v>13503</v>
       </c>
       <c r="C9" s="4">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D9" s="4">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E9" s="4">
-        <v>14212</v>
+        <v>14248</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>5692</v>
+        <v>5707</v>
       </c>
       <c r="C11" s="4">
         <v>357</v>
       </c>
       <c r="D11" s="4">
-        <v>1957</v>
+        <v>1980</v>
       </c>
       <c r="E11" s="4">
-        <v>8006</v>
+        <v>8044</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>37605</v>
+        <v>37781</v>
       </c>
       <c r="C12" s="4">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D12" s="4">
-        <v>9965</v>
+        <v>9982</v>
       </c>
       <c r="E12" s="4">
-        <v>48429</v>
+        <v>48625</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="C13" s="4">
         <v>7</v>
@@ -1267,7 +1267,7 @@
         <v>570</v>
       </c>
       <c r="E13" s="4">
-        <v>1653</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>25283</v>
+        <v>25362</v>
       </c>
       <c r="C14" s="4">
         <v>4453</v>
       </c>
       <c r="D14" s="4">
-        <v>4163</v>
+        <v>4228</v>
       </c>
       <c r="E14" s="4">
-        <v>33899</v>
+        <v>34043</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>187362</v>
+        <v>188524</v>
       </c>
       <c r="C15" s="4">
-        <v>11907</v>
+        <v>11924</v>
       </c>
       <c r="D15" s="4">
-        <v>5812</v>
+        <v>5836</v>
       </c>
       <c r="E15" s="4">
-        <v>205081</v>
+        <v>206284</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1181278</v>
+        <v>1189035</v>
       </c>
       <c r="C16" s="4">
-        <v>38248</v>
+        <v>38246</v>
       </c>
       <c r="D16" s="4">
-        <v>107830</v>
+        <v>108689</v>
       </c>
       <c r="E16" s="4">
-        <v>1327356</v>
+        <v>1335970</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4307</v>
+        <v>4317</v>
       </c>
       <c r="C17" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" s="4">
         <v>308</v>
       </c>
       <c r="E17" s="4">
-        <v>4804</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,7 +1343,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
@@ -1352,7 +1352,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7344</v>
+        <v>7365</v>
       </c>
       <c r="C19" s="4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D19" s="4">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="E19" s="4">
-        <v>11200</v>
+        <v>11223</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>49400</v>
+        <v>49471</v>
       </c>
       <c r="C20" s="4">
-        <v>9456</v>
+        <v>9454</v>
       </c>
       <c r="D20" s="4">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="E20" s="4">
-        <v>62862</v>
+        <v>62932</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>234505</v>
+        <v>235971</v>
       </c>
       <c r="C21" s="4">
-        <v>7389</v>
+        <v>7407</v>
       </c>
       <c r="D21" s="4">
-        <v>15646</v>
+        <v>15686</v>
       </c>
       <c r="E21" s="4">
-        <v>257540</v>
+        <v>259064</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>179038</v>
+        <v>179180</v>
       </c>
       <c r="C22" s="4">
-        <v>4868</v>
+        <v>4876</v>
       </c>
       <c r="D22" s="4">
-        <v>7870</v>
+        <v>8017</v>
       </c>
       <c r="E22" s="4">
-        <v>191776</v>
+        <v>192073</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>7986</v>
+        <v>7992</v>
       </c>
       <c r="C23" s="4">
         <v>92</v>
@@ -1437,7 +1437,7 @@
         <v>106</v>
       </c>
       <c r="E23" s="4">
-        <v>8184</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1448,13 +1448,13 @@
         <v>483</v>
       </c>
       <c r="C24" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4">
         <v>43</v>
       </c>
       <c r="E24" s="4">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>10715</v>
+        <v>10730</v>
       </c>
       <c r="C25" s="4">
         <v>1134</v>
       </c>
       <c r="D25" s="4">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E25" s="4">
-        <v>12690</v>
+        <v>12707</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>13372</v>
+        <v>13404</v>
       </c>
       <c r="C26" s="4">
         <v>648</v>
       </c>
       <c r="D26" s="4">
-        <v>12662</v>
+        <v>12903</v>
       </c>
       <c r="E26" s="4">
-        <v>26682</v>
+        <v>26955</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>10497</v>
+        <v>10505</v>
       </c>
       <c r="C27" s="4">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D27" s="4">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E27" s="4">
-        <v>11353</v>
+        <v>11366</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>24780</v>
+        <v>24866</v>
       </c>
       <c r="C28" s="4">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D28" s="4">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="E28" s="4">
-        <v>27204</v>
+        <v>27302</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>23642</v>
+        <v>23904</v>
       </c>
       <c r="C29" s="4">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="D29" s="4">
-        <v>3150</v>
+        <v>3157</v>
       </c>
       <c r="E29" s="4">
-        <v>28153</v>
+        <v>28426</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>10251</v>
+        <v>10688</v>
       </c>
       <c r="C30" s="4">
         <v>236</v>
       </c>
       <c r="D30" s="4">
-        <v>2244</v>
+        <v>2271</v>
       </c>
       <c r="E30" s="4">
-        <v>12731</v>
+        <v>13195</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>3962</v>
+        <v>3966</v>
       </c>
       <c r="C31" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D31" s="4">
-        <v>3161</v>
+        <v>3193</v>
       </c>
       <c r="E31" s="4">
-        <v>7320</v>
+        <v>7357</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>190510</v>
+        <v>191648</v>
       </c>
       <c r="C32" s="4">
-        <v>6620</v>
+        <v>6616</v>
       </c>
       <c r="D32" s="4">
-        <v>20610</v>
+        <v>20815</v>
       </c>
       <c r="E32" s="4">
-        <v>217740</v>
+        <v>219079</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>4592</v>
+        <v>4596</v>
       </c>
       <c r="C33" s="4">
         <v>311</v>
       </c>
       <c r="D33" s="4">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="E33" s="4">
-        <v>5853</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="C34" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D34" s="4">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E34" s="4">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>9970</v>
+        <v>9975</v>
       </c>
       <c r="C35" s="4">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="D35" s="4">
-        <v>1792</v>
+        <v>1821</v>
       </c>
       <c r="E35" s="4">
-        <v>14743</v>
+        <v>14778</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6328</v>
+        <v>6354</v>
       </c>
       <c r="C37" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D37" s="4">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E37" s="4">
-        <v>7413</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>18148</v>
+        <v>18226</v>
       </c>
       <c r="C38" s="4">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D38" s="4">
-        <v>4168</v>
+        <v>4257</v>
       </c>
       <c r="E38" s="4">
-        <v>22990</v>
+        <v>23158</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2343</v>
+        <v>2357</v>
       </c>
       <c r="C39" s="4">
         <v>123</v>
@@ -1709,7 +1709,7 @@
         <v>3427</v>
       </c>
       <c r="E39" s="4">
-        <v>5893</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3452</v>
+        <v>3476</v>
       </c>
       <c r="C40" s="4">
         <v>98</v>
       </c>
       <c r="D40" s="4">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E40" s="4">
-        <v>4283</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C41" s="4">
         <v>13</v>
@@ -1743,7 +1743,7 @@
         <v>208</v>
       </c>
       <c r="E41" s="4">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="C42" s="4">
         <v>18</v>
       </c>
       <c r="D42" s="4">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="E42" s="4">
-        <v>2820</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2525</v>
+        <v>2533</v>
       </c>
       <c r="C43" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D43" s="4">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="E43" s="4">
-        <v>4587</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>669050</v>
+        <v>671946</v>
       </c>
       <c r="C44" s="4">
-        <v>69937</v>
+        <v>70012</v>
       </c>
       <c r="D44" s="4">
-        <v>44541</v>
+        <v>44743</v>
       </c>
       <c r="E44" s="4">
-        <v>783528</v>
+        <v>786701</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C45" s="4">
         <v>13</v>
       </c>
       <c r="D45" s="4">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="E45" s="4">
-        <v>1788</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>9401</v>
+        <v>9437</v>
       </c>
       <c r="C46" s="4">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D46" s="4">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="E46" s="4">
-        <v>11976</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>69947</v>
+        <v>70210</v>
       </c>
       <c r="C47" s="4">
         <v>5919</v>
       </c>
       <c r="D47" s="4">
-        <v>10043</v>
+        <v>10131</v>
       </c>
       <c r="E47" s="4">
-        <v>85909</v>
+        <v>86260</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5582</v>
+        <v>5590</v>
       </c>
       <c r="C48" s="4">
         <v>269</v>
       </c>
       <c r="D48" s="4">
-        <v>1666</v>
+        <v>1683</v>
       </c>
       <c r="E48" s="4">
-        <v>7517</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="C49" s="4">
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="E49" s="4">
-        <v>2172</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>19325</v>
+        <v>19371</v>
       </c>
       <c r="C50" s="4">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D50" s="4">
-        <v>3177</v>
+        <v>3187</v>
       </c>
       <c r="E50" s="4">
-        <v>23616</v>
+        <v>23674</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>67516</v>
+        <v>68157</v>
       </c>
       <c r="C51" s="4">
         <v>1971</v>
       </c>
       <c r="D51" s="4">
-        <v>1814</v>
+        <v>1820</v>
       </c>
       <c r="E51" s="4">
-        <v>71301</v>
+        <v>71948</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C52" s="4">
         <v>13</v>
@@ -1930,7 +1930,7 @@
         <v>566</v>
       </c>
       <c r="E52" s="4">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3269</v>
+        <v>3310</v>
       </c>
       <c r="C53" s="4">
         <v>55</v>
       </c>
       <c r="D53" s="4">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E53" s="4">
-        <v>4161</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2114</v>
+        <v>2119</v>
       </c>
       <c r="C55" s="4">
         <v>17</v>
       </c>
       <c r="D55" s="4">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E55" s="4">
-        <v>3316</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1835</v>
+        <v>1857</v>
       </c>
       <c r="C56" s="4">
         <v>10</v>
@@ -1998,7 +1998,7 @@
         <v>23</v>
       </c>
       <c r="E56" s="4">
-        <v>1868</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C57" s="4">
         <v>49</v>
       </c>
       <c r="D57" s="4">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E57" s="4">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1717800</v>
+        <v>1724849</v>
       </c>
       <c r="C58" s="4">
-        <v>114193</v>
+        <v>114337</v>
       </c>
       <c r="D58" s="4">
-        <v>103600</v>
+        <v>104427</v>
       </c>
       <c r="E58" s="4">
-        <v>1935593</v>
+        <v>1943613</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>6580</v>
+        <v>6581</v>
       </c>
       <c r="C59" s="4">
         <v>398</v>
       </c>
       <c r="D59" s="4">
-        <v>1567</v>
+        <v>1583</v>
       </c>
       <c r="E59" s="4">
-        <v>8545</v>
+        <v>8562</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>6577</v>
+        <v>6589</v>
       </c>
       <c r="C60" s="4">
         <v>151</v>
       </c>
       <c r="D60" s="4">
-        <v>1706</v>
+        <v>1719</v>
       </c>
       <c r="E60" s="4">
-        <v>8434</v>
+        <v>8459</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>3989</v>
+        <v>3992</v>
       </c>
       <c r="C61" s="4">
         <v>232</v>
       </c>
       <c r="D61" s="4">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="E61" s="4">
-        <v>5772</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="C62" s="4">
         <v>196</v>
       </c>
       <c r="D62" s="4">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E62" s="4">
-        <v>2337</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>407359</v>
+        <v>409351</v>
       </c>
       <c r="C63" s="4">
-        <v>50677</v>
+        <v>50692</v>
       </c>
       <c r="D63" s="4">
-        <v>39217</v>
+        <v>39338</v>
       </c>
       <c r="E63" s="4">
-        <v>497253</v>
+        <v>499381</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>6871</v>
+        <v>6878</v>
       </c>
       <c r="C65" s="4">
         <v>80</v>
       </c>
       <c r="D65" s="4">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E65" s="4">
-        <v>7248</v>
+        <v>7257</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C66" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="4">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E66" s="4">
-        <v>1672</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>13755</v>
+        <v>13852</v>
       </c>
       <c r="C67" s="4">
         <v>1950</v>
       </c>
       <c r="D67" s="4">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="E67" s="4">
-        <v>16513</v>
+        <v>16616</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>3614</v>
+        <v>3626</v>
       </c>
       <c r="C68" s="4">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D68" s="4">
-        <v>2346</v>
+        <v>2360</v>
       </c>
       <c r="E68" s="4">
-        <v>6250</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>49778</v>
+        <v>49887</v>
       </c>
       <c r="C69" s="4">
-        <v>3706</v>
+        <v>3732</v>
       </c>
       <c r="D69" s="4">
-        <v>9685</v>
+        <v>9879</v>
       </c>
       <c r="E69" s="4">
-        <v>63169</v>
+        <v>63498</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2233,10 +2233,10 @@
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E70" s="4">
-        <v>1248</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>664687</v>
+        <v>669713</v>
       </c>
       <c r="C71" s="4">
-        <v>14706</v>
+        <v>14720</v>
       </c>
       <c r="D71" s="4">
-        <v>66778</v>
+        <v>67400</v>
       </c>
       <c r="E71" s="4">
-        <v>746171</v>
+        <v>751833</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>122821</v>
+        <v>123276</v>
       </c>
       <c r="C72" s="4">
-        <v>6217</v>
+        <v>6220</v>
       </c>
       <c r="D72" s="4">
-        <v>5118</v>
+        <v>5140</v>
       </c>
       <c r="E72" s="4">
-        <v>134156</v>
+        <v>134636</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>13741</v>
+        <v>13784</v>
       </c>
       <c r="C73" s="4">
         <v>974</v>
       </c>
       <c r="D73" s="4">
-        <v>3424</v>
+        <v>3436</v>
       </c>
       <c r="E73" s="4">
-        <v>18139</v>
+        <v>18194</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>10536</v>
+        <v>10564</v>
       </c>
       <c r="C74" s="4">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D74" s="4">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E74" s="4">
-        <v>11960</v>
+        <v>11993</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>19076</v>
+        <v>19220</v>
       </c>
       <c r="C75" s="4">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D75" s="4">
-        <v>2466</v>
+        <v>2485</v>
       </c>
       <c r="E75" s="4">
-        <v>22199</v>
+        <v>22365</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>11081</v>
+        <v>11115</v>
       </c>
       <c r="C76" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D76" s="4">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E76" s="4">
-        <v>12513</v>
+        <v>12549</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C77" s="4">
         <v>25</v>
       </c>
       <c r="D77" s="4">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E77" s="4">
-        <v>1353</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,7 +2363,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>1908</v>
+        <v>1914</v>
       </c>
       <c r="C78" s="4">
         <v>99</v>
@@ -2372,7 +2372,7 @@
         <v>245</v>
       </c>
       <c r="E78" s="4">
-        <v>2252</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C79" s="4">
         <v>6</v>
@@ -2389,7 +2389,7 @@
         <v>517</v>
       </c>
       <c r="E79" s="4">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>465871</v>
+        <v>469224</v>
       </c>
       <c r="C80" s="4">
-        <v>18206</v>
+        <v>18222</v>
       </c>
       <c r="D80" s="4">
-        <v>15388</v>
+        <v>15519</v>
       </c>
       <c r="E80" s="4">
-        <v>499465</v>
+        <v>502965</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="C81" s="4">
         <v>411</v>
       </c>
       <c r="D81" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E81" s="4">
-        <v>4322</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>11016</v>
+        <v>11093</v>
       </c>
       <c r="C82" s="4">
         <v>598</v>
       </c>
       <c r="D82" s="4">
-        <v>2283</v>
+        <v>2290</v>
       </c>
       <c r="E82" s="4">
-        <v>13897</v>
+        <v>13981</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>11875</v>
+        <v>11892</v>
       </c>
       <c r="C83" s="4">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D83" s="4">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E83" s="4">
-        <v>12555</v>
+        <v>12570</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,10 +2465,10 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="C84" s="4">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D84" s="4">
         <v>595</v>
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>254480</v>
+        <v>255559</v>
       </c>
       <c r="C85" s="4">
-        <v>7640</v>
+        <v>7667</v>
       </c>
       <c r="D85" s="4">
-        <v>12394</v>
+        <v>12411</v>
       </c>
       <c r="E85" s="4">
-        <v>274514</v>
+        <v>275637</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,7 +2499,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C86" s="4">
         <v>43</v>
@@ -2508,7 +2508,7 @@
         <v>1092</v>
       </c>
       <c r="E86" s="4">
-        <v>2421</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>13535</v>
+        <v>13567</v>
       </c>
       <c r="C87" s="4">
         <v>287</v>
       </c>
       <c r="D87" s="4">
-        <v>1897</v>
+        <v>1910</v>
       </c>
       <c r="E87" s="4">
-        <v>15719</v>
+        <v>15764</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2536,13 +2536,13 @@
         <v>95</v>
       </c>
       <c r="C88" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D88" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E88" s="4">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2014</v>
+        <v>2033</v>
       </c>
       <c r="C89" s="4">
         <v>138</v>
       </c>
       <c r="D89" s="4">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="E89" s="4">
-        <v>3172</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>10327</v>
+        <v>10401</v>
       </c>
       <c r="C90" s="4">
         <v>265</v>
       </c>
       <c r="D90" s="4">
-        <v>1935</v>
+        <v>1948</v>
       </c>
       <c r="E90" s="4">
-        <v>12527</v>
+        <v>12614</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6444</v>
+        <v>6445</v>
       </c>
       <c r="C91" s="4">
         <v>240</v>
       </c>
       <c r="D91" s="4">
-        <v>1158</v>
+        <v>1182</v>
       </c>
       <c r="E91" s="4">
-        <v>7842</v>
+        <v>7867</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>76278</v>
+        <v>76703</v>
       </c>
       <c r="C92" s="4">
         <v>3156</v>
       </c>
       <c r="D92" s="4">
-        <v>6829</v>
+        <v>7074</v>
       </c>
       <c r="E92" s="4">
-        <v>86263</v>
+        <v>86933</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>38104</v>
+        <v>38170</v>
       </c>
       <c r="C93" s="4">
-        <v>8179</v>
+        <v>8181</v>
       </c>
       <c r="D93" s="4">
-        <v>9019</v>
+        <v>9037</v>
       </c>
       <c r="E93" s="4">
-        <v>55302</v>
+        <v>55388</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>19611</v>
+        <v>19634</v>
       </c>
       <c r="C94" s="4">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D94" s="4">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="E94" s="4">
-        <v>20946</v>
+        <v>20974</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>53443</v>
+        <v>53722</v>
       </c>
       <c r="C95" s="4">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D95" s="4">
-        <v>8517</v>
+        <v>8667</v>
       </c>
       <c r="E95" s="4">
-        <v>64649</v>
+        <v>65077</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,7 +2669,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>10695</v>
+        <v>10700</v>
       </c>
       <c r="C96" s="4">
         <v>226</v>
@@ -2678,7 +2678,7 @@
         <v>1505</v>
       </c>
       <c r="E96" s="4">
-        <v>12426</v>
+        <v>12431</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>972</v>
+        <v>985</v>
       </c>
       <c r="C97" s="4">
         <v>20</v>
       </c>
       <c r="D97" s="4">
-        <v>1628</v>
+        <v>1647</v>
       </c>
       <c r="E97" s="4">
-        <v>2620</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>3894</v>
+        <v>3917</v>
       </c>
       <c r="C98" s="4">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="4">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E98" s="4">
-        <v>4752</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C99" s="4">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D99" s="4">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E99" s="4">
-        <v>2650</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1223</v>
+        <v>1242</v>
       </c>
       <c r="C100" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D100" s="4">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E100" s="4">
-        <v>2006</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>14982</v>
+        <v>15082</v>
       </c>
       <c r="C101" s="4">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="D101" s="4">
-        <v>3236</v>
+        <v>3288</v>
       </c>
       <c r="E101" s="4">
-        <v>21166</v>
+        <v>21321</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>2856454</v>
+        <v>2879622</v>
       </c>
       <c r="C102" s="4">
-        <v>111386</v>
+        <v>111501</v>
       </c>
       <c r="D102" s="4">
-        <v>144854</v>
+        <v>145184</v>
       </c>
       <c r="E102" s="4">
-        <v>3112694</v>
+        <v>3136307</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>47598</v>
+        <v>47695</v>
       </c>
       <c r="C103" s="4">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="D103" s="4">
-        <v>5114</v>
+        <v>5130</v>
       </c>
       <c r="E103" s="4">
-        <v>58562</v>
+        <v>58676</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C105" s="4">
         <v>26</v>
       </c>
       <c r="D105" s="4">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="E105" s="4">
-        <v>2026</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>164391</v>
+        <v>164841</v>
       </c>
       <c r="C106" s="4">
-        <v>9338</v>
+        <v>9347</v>
       </c>
       <c r="D106" s="4">
-        <v>6271</v>
+        <v>6296</v>
       </c>
       <c r="E106" s="4">
-        <v>180000</v>
+        <v>180484</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>21318</v>
+        <v>21338</v>
       </c>
       <c r="C108" s="4">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="D108" s="4">
-        <v>4443</v>
+        <v>4480</v>
       </c>
       <c r="E108" s="4">
-        <v>27667</v>
+        <v>27727</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>343588</v>
+        <v>345264</v>
       </c>
       <c r="C109" s="4">
-        <v>12722</v>
+        <v>12695</v>
       </c>
       <c r="D109" s="4">
-        <v>46719</v>
+        <v>46840</v>
       </c>
       <c r="E109" s="4">
-        <v>403029</v>
+        <v>404799</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>27333</v>
+        <v>27520</v>
       </c>
       <c r="C110" s="4">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D110" s="4">
-        <v>3638</v>
+        <v>3640</v>
       </c>
       <c r="E110" s="4">
-        <v>31893</v>
+        <v>32084</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6505</v>
+        <v>6526</v>
       </c>
       <c r="C111" s="4">
         <v>68</v>
       </c>
       <c r="D111" s="4">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="E111" s="4">
-        <v>8837</v>
+        <v>8861</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>27748</v>
+        <v>27931</v>
       </c>
       <c r="C112" s="4">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="D112" s="4">
-        <v>12033</v>
+        <v>12254</v>
       </c>
       <c r="E112" s="4">
-        <v>41872</v>
+        <v>42280</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>13459</v>
+        <v>13470</v>
       </c>
       <c r="C113" s="4">
         <v>1760</v>
       </c>
       <c r="D113" s="4">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="E113" s="4">
-        <v>16779</v>
+        <v>16795</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>12707</v>
+        <v>12712</v>
       </c>
       <c r="C114" s="4">
         <v>296</v>
       </c>
       <c r="D114" s="4">
-        <v>1449</v>
+        <v>1462</v>
       </c>
       <c r="E114" s="4">
-        <v>14452</v>
+        <v>14470</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>12172</v>
+        <v>12182</v>
       </c>
       <c r="C115" s="4">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D115" s="4">
-        <v>2511</v>
+        <v>2603</v>
       </c>
       <c r="E115" s="4">
-        <v>15065</v>
+        <v>15170</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,7 +3009,7 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>1989</v>
+        <v>2021</v>
       </c>
       <c r="C116" s="4">
         <v>24</v>
@@ -3018,7 +3018,7 @@
         <v>477</v>
       </c>
       <c r="E116" s="4">
-        <v>2490</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>57181</v>
+        <v>57465</v>
       </c>
       <c r="C117" s="4">
-        <v>3151</v>
+        <v>3159</v>
       </c>
       <c r="D117" s="4">
-        <v>5597</v>
+        <v>5629</v>
       </c>
       <c r="E117" s="4">
-        <v>65929</v>
+        <v>66253</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7428</v>
+        <v>7445</v>
       </c>
       <c r="C118" s="4">
         <v>421</v>
       </c>
       <c r="D118" s="4">
-        <v>1819</v>
+        <v>1890</v>
       </c>
       <c r="E118" s="4">
-        <v>9668</v>
+        <v>9756</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C119" s="4">
         <v>7</v>
       </c>
       <c r="D119" s="4">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E119" s="4">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1324</v>
+        <v>1332</v>
       </c>
       <c r="C120" s="4">
         <v>97</v>
       </c>
       <c r="D120" s="4">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E120" s="4">
-        <v>1600</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>5715</v>
+        <v>5740</v>
       </c>
       <c r="C121" s="4">
         <v>98</v>
       </c>
       <c r="D121" s="4">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="E121" s="4">
-        <v>6467</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>10419</v>
+        <v>10463</v>
       </c>
       <c r="C122" s="4">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="D122" s="4">
-        <v>1809</v>
+        <v>1823</v>
       </c>
       <c r="E122" s="4">
-        <v>14644</v>
+        <v>14703</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,7 +3128,7 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="C123" s="4">
         <v>24</v>
@@ -3137,7 +3137,7 @@
         <v>61</v>
       </c>
       <c r="E123" s="4">
-        <v>1592</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>129674</v>
+        <v>130134</v>
       </c>
       <c r="C124" s="4">
-        <v>10876</v>
+        <v>10883</v>
       </c>
       <c r="D124" s="4">
-        <v>16298</v>
+        <v>16507</v>
       </c>
       <c r="E124" s="4">
-        <v>156848</v>
+        <v>157524</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>9597</v>
+        <v>9605</v>
       </c>
       <c r="C125" s="4">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D125" s="4">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E125" s="4">
-        <v>10339</v>
+        <v>10353</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>37538</v>
+        <v>37857</v>
       </c>
       <c r="C126" s="4">
-        <v>6331</v>
+        <v>6333</v>
       </c>
       <c r="D126" s="4">
-        <v>7918</v>
+        <v>7943</v>
       </c>
       <c r="E126" s="4">
-        <v>51787</v>
+        <v>52133</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>89080</v>
+        <v>89418</v>
       </c>
       <c r="C127" s="4">
-        <v>5826</v>
+        <v>5831</v>
       </c>
       <c r="D127" s="4">
-        <v>8221</v>
+        <v>8258</v>
       </c>
       <c r="E127" s="4">
-        <v>103127</v>
+        <v>103507</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>4692</v>
+        <v>4699</v>
       </c>
       <c r="C128" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D128" s="4">
-        <v>1779</v>
+        <v>1806</v>
       </c>
       <c r="E128" s="4">
-        <v>6645</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>10817</v>
+        <v>10832</v>
       </c>
       <c r="C129" s="4">
         <v>342</v>
       </c>
       <c r="D129" s="4">
-        <v>2500</v>
+        <v>2511</v>
       </c>
       <c r="E129" s="4">
-        <v>13659</v>
+        <v>13685</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>77392</v>
+        <v>77661</v>
       </c>
       <c r="C130" s="4">
-        <v>4389</v>
+        <v>4397</v>
       </c>
       <c r="D130" s="4">
-        <v>8191</v>
+        <v>8297</v>
       </c>
       <c r="E130" s="4">
-        <v>89972</v>
+        <v>90355</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>16485</v>
+        <v>16537</v>
       </c>
       <c r="C131" s="4">
         <v>1020</v>
       </c>
       <c r="D131" s="4">
-        <v>4108</v>
+        <v>4145</v>
       </c>
       <c r="E131" s="4">
-        <v>21613</v>
+        <v>21702</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>23993</v>
+        <v>24006</v>
       </c>
       <c r="C134" s="4">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D134" s="4">
-        <v>13164</v>
+        <v>13363</v>
       </c>
       <c r="E134" s="4">
-        <v>37669</v>
+        <v>37877</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C135" s="4">
         <v>33</v>
       </c>
       <c r="D135" s="4">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E135" s="4">
-        <v>1671</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C137" s="4">
         <v>36</v>
@@ -3375,7 +3375,7 @@
         <v>50</v>
       </c>
       <c r="E137" s="4">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>20898</v>
+        <v>20991</v>
       </c>
       <c r="C138" s="4">
         <v>3515</v>
       </c>
       <c r="D138" s="4">
-        <v>3474</v>
+        <v>3492</v>
       </c>
       <c r="E138" s="4">
-        <v>27887</v>
+        <v>27998</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C139" s="4">
         <v>28</v>
       </c>
       <c r="D139" s="4">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="E139" s="4">
-        <v>2305</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>5843</v>
+        <v>5844</v>
       </c>
       <c r="C140" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D140" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E140" s="4">
-        <v>6242</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>17342</v>
+        <v>17377</v>
       </c>
       <c r="C141" s="4">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="D141" s="4">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="E141" s="4">
-        <v>20724</v>
+        <v>20767</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,7 +3451,7 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>4810</v>
+        <v>4812</v>
       </c>
       <c r="C142" s="4">
         <v>66</v>
@@ -3460,7 +3460,7 @@
         <v>2808</v>
       </c>
       <c r="E142" s="4">
-        <v>7684</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,7 +3468,7 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>12468</v>
+        <v>12508</v>
       </c>
       <c r="C143" s="4">
         <v>563</v>
@@ -3477,7 +3477,7 @@
         <v>1772</v>
       </c>
       <c r="E143" s="4">
-        <v>14803</v>
+        <v>14843</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>9021</v>
+        <v>9052</v>
       </c>
       <c r="C144" s="4">
         <v>329</v>
       </c>
       <c r="D144" s="4">
-        <v>1569</v>
+        <v>1591</v>
       </c>
       <c r="E144" s="4">
-        <v>10919</v>
+        <v>10972</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6342</v>
+        <v>6360</v>
       </c>
       <c r="C145" s="4">
         <v>185</v>
       </c>
       <c r="D145" s="4">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="E145" s="4">
-        <v>8089</v>
+        <v>8112</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>7296</v>
+        <v>7308</v>
       </c>
       <c r="C146" s="4">
         <v>416</v>
       </c>
       <c r="D146" s="4">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="E146" s="4">
-        <v>8596</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>37197</v>
+        <v>37334</v>
       </c>
       <c r="C147" s="4">
-        <v>2532</v>
+        <v>2540</v>
       </c>
       <c r="D147" s="4">
-        <v>2927</v>
+        <v>2930</v>
       </c>
       <c r="E147" s="4">
-        <v>42656</v>
+        <v>42804</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>22125</v>
+        <v>22231</v>
       </c>
       <c r="C148" s="4">
         <v>523</v>
       </c>
       <c r="D148" s="4">
-        <v>2386</v>
+        <v>2396</v>
       </c>
       <c r="E148" s="4">
-        <v>25034</v>
+        <v>25150</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,13 +3573,13 @@
         <v>227</v>
       </c>
       <c r="C149" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D149" s="4">
         <v>64</v>
       </c>
       <c r="E149" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>3770</v>
+        <v>3793</v>
       </c>
       <c r="C150" s="4">
         <v>735</v>
       </c>
       <c r="D150" s="4">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E150" s="4">
-        <v>4921</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>7801</v>
+        <v>7822</v>
       </c>
       <c r="C151" s="4">
         <v>282</v>
       </c>
       <c r="D151" s="4">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E151" s="4">
-        <v>8631</v>
+        <v>8654</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>162660</v>
+        <v>162900</v>
       </c>
       <c r="C153" s="4">
         <v>5918</v>
       </c>
       <c r="D153" s="4">
-        <v>67891</v>
+        <v>68020</v>
       </c>
       <c r="E153" s="4">
-        <v>236469</v>
+        <v>236838</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="C154" s="4">
         <v>75</v>
       </c>
       <c r="D154" s="4">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E154" s="4">
-        <v>3582</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>9999</v>
+        <v>10007</v>
       </c>
       <c r="C155" s="4">
         <v>124</v>
       </c>
       <c r="D155" s="4">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E155" s="4">
-        <v>11081</v>
+        <v>11092</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,7 +3689,7 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C156" s="4">
         <v>599</v>
@@ -3698,7 +3698,7 @@
         <v>652</v>
       </c>
       <c r="E156" s="4">
-        <v>3017</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3712,10 +3712,10 @@
         <v>106</v>
       </c>
       <c r="D157" s="4">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E157" s="4">
-        <v>1471</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C158" s="4">
         <v>42</v>
       </c>
       <c r="D158" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E158" s="4">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>23243</v>
+        <v>23347</v>
       </c>
       <c r="C159" s="4">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D159" s="4">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E159" s="4">
-        <v>25055</v>
+        <v>25159</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>44068</v>
+        <v>44095</v>
       </c>
       <c r="C160" s="4">
         <v>247</v>
       </c>
       <c r="D160" s="4">
-        <v>2351</v>
+        <v>2434</v>
       </c>
       <c r="E160" s="4">
-        <v>46666</v>
+        <v>46776</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,13 +3777,13 @@
         <v>1997</v>
       </c>
       <c r="C161" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" s="4">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E161" s="4">
-        <v>2777</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>187451</v>
+        <v>188254</v>
       </c>
       <c r="C162" s="4">
-        <v>8854</v>
+        <v>8870</v>
       </c>
       <c r="D162" s="4">
-        <v>32434</v>
+        <v>32770</v>
       </c>
       <c r="E162" s="4">
-        <v>228739</v>
+        <v>229894</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C163" s="4">
         <v>33</v>
@@ -3817,7 +3817,7 @@
         <v>27</v>
       </c>
       <c r="E163" s="4">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>20107</v>
+        <v>20172</v>
       </c>
       <c r="C164" s="4">
         <v>900</v>
       </c>
       <c r="D164" s="4">
-        <v>2498</v>
+        <v>2507</v>
       </c>
       <c r="E164" s="4">
-        <v>23505</v>
+        <v>23579</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>36525</v>
+        <v>36587</v>
       </c>
       <c r="C166" s="4">
-        <v>4581</v>
+        <v>4587</v>
       </c>
       <c r="D166" s="4">
-        <v>24296</v>
+        <v>24655</v>
       </c>
       <c r="E166" s="4">
-        <v>65402</v>
+        <v>65829</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>12364</v>
+        <v>12425</v>
       </c>
       <c r="C167" s="4">
         <v>741</v>
       </c>
       <c r="D167" s="4">
-        <v>3412</v>
+        <v>3508</v>
       </c>
       <c r="E167" s="4">
-        <v>16517</v>
+        <v>16674</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3381</v>
+        <v>3427</v>
       </c>
       <c r="C168" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D168" s="4">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E168" s="4">
-        <v>4175</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3916,10 +3916,10 @@
         <v>47</v>
       </c>
       <c r="D169" s="4">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="E169" s="4">
-        <v>5567</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>8350</v>
+        <v>8367</v>
       </c>
       <c r="C170" s="4">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D170" s="4">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="E170" s="4">
-        <v>10713</v>
+        <v>10733</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>260809</v>
+        <v>261581</v>
       </c>
       <c r="C171" s="4">
         <v>13500</v>
       </c>
       <c r="D171" s="4">
-        <v>17555</v>
+        <v>17587</v>
       </c>
       <c r="E171" s="4">
-        <v>291864</v>
+        <v>292668</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3967,10 +3967,10 @@
         <v>120</v>
       </c>
       <c r="D172" s="4">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="E172" s="4">
-        <v>7867</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4392</v>
+        <v>4400</v>
       </c>
       <c r="C173" s="4">
         <v>586</v>
       </c>
       <c r="D173" s="4">
-        <v>2255</v>
+        <v>2266</v>
       </c>
       <c r="E173" s="4">
-        <v>7233</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>32013</v>
+        <v>32059</v>
       </c>
       <c r="C175" s="4">
         <v>940</v>
       </c>
       <c r="D175" s="4">
-        <v>2934</v>
+        <v>2943</v>
       </c>
       <c r="E175" s="4">
-        <v>35887</v>
+        <v>35942</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>20957</v>
+        <v>20982</v>
       </c>
       <c r="C176" s="4">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="D176" s="4">
-        <v>5614</v>
+        <v>5654</v>
       </c>
       <c r="E176" s="4">
-        <v>27955</v>
+        <v>28023</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2551</v>
+        <v>2608</v>
       </c>
       <c r="C177" s="4">
         <v>721</v>
       </c>
       <c r="D177" s="4">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="E177" s="4">
-        <v>4317</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>5741</v>
+        <v>5746</v>
       </c>
       <c r="C178" s="4">
         <v>111</v>
       </c>
       <c r="D178" s="4">
-        <v>2115</v>
+        <v>2122</v>
       </c>
       <c r="E178" s="4">
-        <v>7967</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>169469</v>
+        <v>170931</v>
       </c>
       <c r="C179" s="4">
-        <v>34050</v>
+        <v>34054</v>
       </c>
       <c r="D179" s="4">
-        <v>25487</v>
+        <v>25703</v>
       </c>
       <c r="E179" s="4">
-        <v>229006</v>
+        <v>230688</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C180" s="4">
         <v>28</v>
       </c>
       <c r="D180" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E180" s="4">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4120,10 +4120,10 @@
         <v>91</v>
       </c>
       <c r="D181" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E181" s="4">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>20659</v>
+        <v>20775</v>
       </c>
       <c r="C182" s="4">
-        <v>4786</v>
+        <v>4781</v>
       </c>
       <c r="D182" s="4">
-        <v>4905</v>
+        <v>4918</v>
       </c>
       <c r="E182" s="4">
-        <v>30350</v>
+        <v>30474</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>10462</v>
+        <v>10581</v>
       </c>
       <c r="C183" s="4">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D183" s="4">
-        <v>2733</v>
+        <v>2780</v>
       </c>
       <c r="E183" s="4">
-        <v>14012</v>
+        <v>14179</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>6762</v>
+        <v>6813</v>
       </c>
       <c r="C184" s="4">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D184" s="4">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E184" s="4">
-        <v>8850</v>
+        <v>8905</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>50665</v>
+        <v>51009</v>
       </c>
       <c r="C185" s="4">
-        <v>5317</v>
+        <v>5322</v>
       </c>
       <c r="D185" s="4">
-        <v>10146</v>
+        <v>10329</v>
       </c>
       <c r="E185" s="4">
-        <v>66128</v>
+        <v>66660</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C186" s="4">
         <v>60</v>
       </c>
       <c r="D186" s="4">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E186" s="4">
-        <v>2348</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>7916</v>
+        <v>8013</v>
       </c>
       <c r="C187" s="4">
         <v>80</v>
       </c>
       <c r="D187" s="4">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="E187" s="4">
-        <v>8501</v>
+        <v>8604</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>21694</v>
+        <v>21766</v>
       </c>
       <c r="C188" s="4">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D188" s="4">
-        <v>2640</v>
+        <v>2653</v>
       </c>
       <c r="E188" s="4">
-        <v>25325</v>
+        <v>25413</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>59589</v>
+        <v>59717</v>
       </c>
       <c r="C189" s="4">
-        <v>2554</v>
+        <v>2543</v>
       </c>
       <c r="D189" s="4">
-        <v>5948</v>
+        <v>6046</v>
       </c>
       <c r="E189" s="4">
-        <v>68091</v>
+        <v>68306</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>6739</v>
+        <v>6768</v>
       </c>
       <c r="C190" s="4">
         <v>29</v>
@@ -4276,7 +4276,7 @@
         <v>371</v>
       </c>
       <c r="E190" s="4">
-        <v>7139</v>
+        <v>7168</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="C191" s="4">
         <v>345</v>
       </c>
       <c r="D191" s="4">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E191" s="4">
-        <v>2838</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>37386</v>
+        <v>37421</v>
       </c>
       <c r="C192" s="4">
-        <v>4752</v>
+        <v>4733</v>
       </c>
       <c r="D192" s="4">
-        <v>6029</v>
+        <v>6136</v>
       </c>
       <c r="E192" s="4">
-        <v>48167</v>
+        <v>48290</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C193" s="4">
         <v>24</v>
       </c>
       <c r="D193" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E193" s="4">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>4677</v>
+        <v>4683</v>
       </c>
       <c r="C195" s="4">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D195" s="4">
         <v>815</v>
       </c>
       <c r="E195" s="4">
-        <v>5929</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,7 +4369,7 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4089</v>
+        <v>4108</v>
       </c>
       <c r="C196" s="4">
         <v>93</v>
@@ -4378,7 +4378,7 @@
         <v>122</v>
       </c>
       <c r="E196" s="4">
-        <v>4304</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3262</v>
+        <v>3279</v>
       </c>
       <c r="C197" s="4">
         <v>313</v>
       </c>
       <c r="D197" s="4">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="E197" s="4">
-        <v>5042</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C198" s="4">
         <v>15</v>
@@ -4412,7 +4412,7 @@
         <v>26</v>
       </c>
       <c r="E198" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>8925</v>
+        <v>8988</v>
       </c>
       <c r="C199" s="4">
         <v>217</v>
       </c>
       <c r="D199" s="4">
-        <v>3695</v>
+        <v>3736</v>
       </c>
       <c r="E199" s="4">
-        <v>12837</v>
+        <v>12941</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>53739</v>
+        <v>54041</v>
       </c>
       <c r="C200" s="4">
-        <v>4386</v>
+        <v>4391</v>
       </c>
       <c r="D200" s="4">
-        <v>2881</v>
+        <v>2906</v>
       </c>
       <c r="E200" s="4">
-        <v>61006</v>
+        <v>61338</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>4799</v>
+        <v>4809</v>
       </c>
       <c r="C201" s="4">
         <v>127</v>
       </c>
       <c r="D201" s="4">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="E201" s="4">
-        <v>6698</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>14633</v>
+        <v>14648</v>
       </c>
       <c r="C202" s="4">
         <v>1681</v>
       </c>
       <c r="D202" s="4">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="E202" s="4">
-        <v>17555</v>
+        <v>17572</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4454</v>
+        <v>4458</v>
       </c>
       <c r="C203" s="4">
         <v>349</v>
       </c>
       <c r="D203" s="4">
-        <v>1127</v>
+        <v>1154</v>
       </c>
       <c r="E203" s="4">
-        <v>5930</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4276</v>
+        <v>4278</v>
       </c>
       <c r="C204" s="4">
         <v>51</v>
       </c>
       <c r="D204" s="4">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="E204" s="4">
-        <v>5447</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>11386</v>
+        <v>11520</v>
       </c>
       <c r="C205" s="4">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D205" s="4">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E205" s="4">
-        <v>13995</v>
+        <v>14126</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>22106</v>
+        <v>22393</v>
       </c>
       <c r="C206" s="4">
-        <v>6226</v>
+        <v>6227</v>
       </c>
       <c r="D206" s="4">
-        <v>8800</v>
+        <v>8844</v>
       </c>
       <c r="E206" s="4">
-        <v>37132</v>
+        <v>37464</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,7 +4556,7 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2123</v>
+        <v>2133</v>
       </c>
       <c r="C207" s="4">
         <v>72</v>
@@ -4565,7 +4565,7 @@
         <v>1254</v>
       </c>
       <c r="E207" s="4">
-        <v>3449</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E208" s="4">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,13 +4593,13 @@
         <v>14876</v>
       </c>
       <c r="C209" s="4">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D209" s="4">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E209" s="4">
-        <v>15437</v>
+        <v>15444</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C210" s="4">
         <v>64</v>
       </c>
       <c r="D210" s="4">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E210" s="4">
-        <v>934</v>
+        <v>943</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>9465</v>
+        <v>9482</v>
       </c>
       <c r="C211" s="4">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D211" s="4">
-        <v>1745</v>
+        <v>1751</v>
       </c>
       <c r="E211" s="4">
-        <v>11519</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,7 +4641,7 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C212" s="4">
         <v>12</v>
@@ -4650,7 +4650,7 @@
         <v>54</v>
       </c>
       <c r="E212" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>144746</v>
+        <v>144964</v>
       </c>
       <c r="C213" s="4">
-        <v>8402</v>
+        <v>8406</v>
       </c>
       <c r="D213" s="4">
-        <v>12467</v>
+        <v>12507</v>
       </c>
       <c r="E213" s="4">
-        <v>165615</v>
+        <v>165877</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3441</v>
+        <v>3445</v>
       </c>
       <c r="C214" s="4">
         <v>319</v>
       </c>
       <c r="D214" s="4">
-        <v>2980</v>
+        <v>2992</v>
       </c>
       <c r="E214" s="4">
-        <v>6740</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>36351</v>
+        <v>36431</v>
       </c>
       <c r="C215" s="4">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D215" s="4">
-        <v>2232</v>
+        <v>2254</v>
       </c>
       <c r="E215" s="4">
-        <v>39032</v>
+        <v>39133</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="C216" s="4">
         <v>123</v>
       </c>
       <c r="D216" s="4">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="E216" s="4">
-        <v>3256</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4743,16 +4743,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C218" s="4">
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E218" s="4">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4783,10 +4783,10 @@
         <v>110</v>
       </c>
       <c r="D220" s="4">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E220" s="4">
-        <v>3634</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1169463</v>
+        <v>1174982</v>
       </c>
       <c r="C221" s="4">
-        <v>79776</v>
+        <v>79869</v>
       </c>
       <c r="D221" s="4">
-        <v>99130</v>
+        <v>99730</v>
       </c>
       <c r="E221" s="4">
-        <v>1348369</v>
+        <v>1354581</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>66766</v>
+        <v>66814</v>
       </c>
       <c r="C222" s="4">
-        <v>2816</v>
+        <v>2820</v>
       </c>
       <c r="D222" s="4">
-        <v>25005</v>
+        <v>25401</v>
       </c>
       <c r="E222" s="4">
-        <v>94587</v>
+        <v>95035</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,7 +4828,7 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
@@ -4837,7 +4837,7 @@
         <v>39</v>
       </c>
       <c r="E223" s="4">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>18</v>
       </c>
       <c r="D225" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E225" s="4">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>18307</v>
+        <v>18332</v>
       </c>
       <c r="C226" s="4">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D226" s="4">
-        <v>2323</v>
+        <v>2332</v>
       </c>
       <c r="E226" s="4">
-        <v>21548</v>
+        <v>21583</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>61053</v>
+        <v>61380</v>
       </c>
       <c r="C227" s="4">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D227" s="4">
-        <v>29425</v>
+        <v>29491</v>
       </c>
       <c r="E227" s="4">
-        <v>91769</v>
+        <v>92163</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>711183</v>
+        <v>714021</v>
       </c>
       <c r="C228" s="4">
-        <v>30249</v>
+        <v>30274</v>
       </c>
       <c r="D228" s="4">
-        <v>65627</v>
+        <v>65983</v>
       </c>
       <c r="E228" s="4">
-        <v>807059</v>
+        <v>810278</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>7666</v>
+        <v>7679</v>
       </c>
       <c r="C229" s="4">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D229" s="4">
-        <v>1481</v>
+        <v>1509</v>
       </c>
       <c r="E229" s="4">
-        <v>9341</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7065</v>
+        <v>7077</v>
       </c>
       <c r="C230" s="4">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D230" s="4">
-        <v>2913</v>
+        <v>2964</v>
       </c>
       <c r="E230" s="4">
-        <v>10780</v>
+        <v>10847</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>8139</v>
+        <v>8151</v>
       </c>
       <c r="C231" s="4">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="D231" s="4">
-        <v>2345</v>
+        <v>2354</v>
       </c>
       <c r="E231" s="4">
-        <v>12112</v>
+        <v>12136</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C232" s="4">
         <v>59</v>
       </c>
       <c r="D232" s="4">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="E232" s="4">
-        <v>1860</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>18172</v>
+        <v>18189</v>
       </c>
       <c r="C233" s="4">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D233" s="4">
         <v>546</v>
       </c>
       <c r="E233" s="4">
-        <v>19025</v>
+        <v>19040</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>33015</v>
+        <v>33020</v>
       </c>
       <c r="C234" s="4">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="D234" s="4">
-        <v>3495</v>
+        <v>3535</v>
       </c>
       <c r="E234" s="4">
-        <v>37532</v>
+        <v>37581</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>14187</v>
+        <v>14222</v>
       </c>
       <c r="C235" s="4">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="D235" s="4">
-        <v>3650</v>
+        <v>3669</v>
       </c>
       <c r="E235" s="4">
-        <v>19415</v>
+        <v>19472</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>30583</v>
+        <v>30800</v>
       </c>
       <c r="C236" s="4">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="D236" s="4">
-        <v>7611</v>
+        <v>7788</v>
       </c>
       <c r="E236" s="4">
-        <v>39401</v>
+        <v>39798</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>74937</v>
+        <v>74994</v>
       </c>
       <c r="C237" s="4">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D237" s="4">
-        <v>4252</v>
+        <v>4256</v>
       </c>
       <c r="E237" s="4">
-        <v>80164</v>
+        <v>80222</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>22181</v>
+        <v>22263</v>
       </c>
       <c r="C238" s="4">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D238" s="4">
-        <v>1033</v>
+        <v>1058</v>
       </c>
       <c r="E238" s="4">
-        <v>23825</v>
+        <v>23929</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>3764</v>
+        <v>3766</v>
       </c>
       <c r="C239" s="4">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D239" s="4">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E239" s="4">
-        <v>4067</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>27960</v>
+        <v>28018</v>
       </c>
       <c r="C240" s="4">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D240" s="4">
-        <v>2328</v>
+        <v>2346</v>
       </c>
       <c r="E240" s="4">
-        <v>30746</v>
+        <v>30825</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>260094</v>
+        <v>260494</v>
       </c>
       <c r="C241" s="4">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="D241" s="4">
-        <v>21202</v>
+        <v>21736</v>
       </c>
       <c r="E241" s="4">
-        <v>285211</v>
+        <v>286144</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>24157</v>
+        <v>24399</v>
       </c>
       <c r="C242" s="4">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D242" s="4">
-        <v>1374</v>
+        <v>1392</v>
       </c>
       <c r="E242" s="4">
-        <v>26176</v>
+        <v>26437</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C243" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D243" s="4">
         <v>1552</v>
       </c>
       <c r="E243" s="4">
-        <v>3070</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>90151</v>
+        <v>90792</v>
       </c>
       <c r="C244" s="4">
         <v>1484</v>
       </c>
       <c r="D244" s="4">
-        <v>12621</v>
+        <v>12654</v>
       </c>
       <c r="E244" s="4">
-        <v>104256</v>
+        <v>104930</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>9479</v>
+        <v>9584</v>
       </c>
       <c r="C245" s="4">
         <v>123</v>
       </c>
       <c r="D245" s="4">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="E245" s="4">
-        <v>12452</v>
+        <v>12558</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>16763</v>
+        <v>16825</v>
       </c>
       <c r="C246" s="4">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D246" s="4">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E246" s="4">
-        <v>17495</v>
+        <v>17563</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>299420</v>
+        <v>300481</v>
       </c>
       <c r="C247" s="4">
-        <v>12054</v>
+        <v>12069</v>
       </c>
       <c r="D247" s="4">
-        <v>25214</v>
+        <v>25695</v>
       </c>
       <c r="E247" s="4">
-        <v>336688</v>
+        <v>338245</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>22040</v>
+        <v>22136</v>
       </c>
       <c r="C248" s="4">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D248" s="4">
-        <v>4271</v>
+        <v>4283</v>
       </c>
       <c r="E248" s="4">
-        <v>27094</v>
+        <v>27203</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5276,10 +5276,10 @@
         <v>37</v>
       </c>
       <c r="D249" s="4">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E249" s="4">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>34530</v>
+        <v>34603</v>
       </c>
       <c r="C250" s="4">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="D250" s="4">
-        <v>3326</v>
+        <v>3363</v>
       </c>
       <c r="E250" s="4">
-        <v>40638</v>
+        <v>40745</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>12994</v>
+        <v>13064</v>
       </c>
       <c r="C251" s="4">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="D251" s="4">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="E251" s="4">
-        <v>16844</v>
+        <v>16918</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,13 +5324,13 @@
         <v>1977</v>
       </c>
       <c r="C252" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D252" s="4">
         <v>319</v>
       </c>
       <c r="E252" s="4">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>5424</v>
+        <v>5441</v>
       </c>
       <c r="C253" s="4">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D253" s="4">
         <v>1051</v>
       </c>
       <c r="E253" s="4">
-        <v>6886</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>12838</v>
+        <v>12849</v>
       </c>
       <c r="C254" s="4">
         <v>106</v>
       </c>
       <c r="D254" s="4">
-        <v>1601</v>
+        <v>1613</v>
       </c>
       <c r="E254" s="4">
-        <v>14545</v>
+        <v>14568</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,7 +5372,7 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>7093</v>
+        <v>7095</v>
       </c>
       <c r="C255" s="4">
         <v>195</v>
@@ -5381,7 +5381,7 @@
         <v>205</v>
       </c>
       <c r="E255" s="4">
-        <v>7493</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>124240</v>
+        <v>124385</v>
       </c>
       <c r="C256" s="4">
-        <v>3879</v>
+        <v>4085</v>
       </c>
       <c r="D256" s="4">
-        <v>2016</v>
+        <v>2129</v>
       </c>
       <c r="E256" s="4">
-        <v>130135</v>
+        <v>130599</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>16321080</v>
+        <v>16405627</v>
       </c>
       <c r="C257" s="4">
-        <v>890509</v>
+        <v>891438</v>
       </c>
       <c r="D257" s="4">
-        <v>1582586</v>
+        <v>1594480</v>
       </c>
       <c r="E257" s="4">
-        <v>18794175</v>
+        <v>18891545</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
